--- a/modelos/OBAMAS0491029/OBAMAS0491029_Sell in_metricas.xlsx
+++ b/modelos/OBAMAS0491029/OBAMAS0491029_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,621 +473,581 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44722</v>
+        <v>44733</v>
       </c>
       <c r="B2" t="n">
-        <v>79.97023987040539</v>
+        <v>37.71703877278836</v>
       </c>
       <c r="C2" t="n">
-        <v>-48.62641632162345</v>
+        <v>-134.4375600726383</v>
       </c>
       <c r="D2" t="n">
-        <v>204.2118561923144</v>
+        <v>212.6285253055488</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44719</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44726</v>
+        <v>44740</v>
       </c>
       <c r="B3" t="n">
-        <v>162.1795726637578</v>
+        <v>-80.08436768444867</v>
       </c>
       <c r="C3" t="n">
-        <v>37.74511634905969</v>
+        <v>-262.7568335038818</v>
       </c>
       <c r="D3" t="n">
-        <v>285.4635402109517</v>
+        <v>99.95601022689719</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44719</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44733</v>
+        <v>44747</v>
       </c>
       <c r="B4" t="n">
-        <v>109.4296031747338</v>
+        <v>-11.06146971552032</v>
       </c>
       <c r="C4" t="n">
-        <v>-22.44865152179091</v>
+        <v>-199.9572531258859</v>
       </c>
       <c r="D4" t="n">
-        <v>232.3767297762205</v>
+        <v>168.3801407141812</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44726</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44740</v>
+        <v>44754</v>
       </c>
       <c r="B5" t="n">
-        <v>7.984854155636754</v>
+        <v>198.4141901307071</v>
       </c>
       <c r="C5" t="n">
-        <v>-125.0517328103455</v>
+        <v>11.44245476011092</v>
       </c>
       <c r="D5" t="n">
-        <v>126.2809431034547</v>
+        <v>370.3717194200945</v>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44733</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="B6" t="n">
-        <v>-44.24490444613608</v>
+        <v>196.7930481209825</v>
       </c>
       <c r="C6" t="n">
-        <v>-163.3627054497684</v>
+        <v>25.66235483769896</v>
       </c>
       <c r="D6" t="n">
-        <v>82.20143217294026</v>
+        <v>379.7527010227505</v>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44740</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44754</v>
+        <v>44768</v>
       </c>
       <c r="B7" t="n">
-        <v>68.91634472346369</v>
+        <v>95.95535479114795</v>
       </c>
       <c r="C7" t="n">
-        <v>-52.8820348408082</v>
+        <v>-79.65563752812308</v>
       </c>
       <c r="D7" t="n">
-        <v>179.1961167841178</v>
+        <v>269.2590616907481</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44747</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44761</v>
+        <v>44775</v>
       </c>
       <c r="B8" t="n">
-        <v>242.6069247393941</v>
+        <v>118.4527511508919</v>
       </c>
       <c r="C8" t="n">
-        <v>109.4121902310004</v>
+        <v>-55.45553838201042</v>
       </c>
       <c r="D8" t="n">
-        <v>366.6408535414653</v>
+        <v>293.4483450966756</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44754</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44768</v>
+        <v>44782</v>
       </c>
       <c r="B9" t="n">
-        <v>258.8733288998077</v>
+        <v>145.5297508194053</v>
       </c>
       <c r="C9" t="n">
-        <v>130.3615629401952</v>
+        <v>-35.39515439826957</v>
       </c>
       <c r="D9" t="n">
-        <v>387.8084228079513</v>
+        <v>316.1068881159336</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44761</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44775</v>
+        <v>44796</v>
       </c>
       <c r="B10" t="n">
-        <v>262.5762505025262</v>
+        <v>62.5808616991654</v>
       </c>
       <c r="C10" t="n">
-        <v>134.4725215550861</v>
+        <v>-113.2615171365054</v>
       </c>
       <c r="D10" t="n">
-        <v>383.3314422368211</v>
+        <v>236.6283456380969</v>
       </c>
       <c r="E10" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44768</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44782</v>
+        <v>44803</v>
       </c>
       <c r="B11" t="n">
-        <v>215.4057649257855</v>
+        <v>-60.64729690764895</v>
       </c>
       <c r="C11" t="n">
-        <v>90.80301535093668</v>
+        <v>-226.9418235255598</v>
       </c>
       <c r="D11" t="n">
-        <v>339.7200402100594</v>
+        <v>113.2822640210427</v>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44775</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44796</v>
+        <v>44810</v>
       </c>
       <c r="B12" t="n">
-        <v>51.54289801149665</v>
+        <v>-102.3667522916352</v>
       </c>
       <c r="C12" t="n">
-        <v>-81.46083441892895</v>
+        <v>-287.632773680876</v>
       </c>
       <c r="D12" t="n">
-        <v>174.495214186834</v>
+        <v>83.48874040382921</v>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44789</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44803</v>
+        <v>44817</v>
       </c>
       <c r="B13" t="n">
-        <v>-40.36686779894706</v>
+        <v>-19.53032019335076</v>
       </c>
       <c r="C13" t="n">
-        <v>-166.1945303403892</v>
+        <v>-191.0424395564139</v>
       </c>
       <c r="D13" t="n">
-        <v>74.29815092486568</v>
+        <v>154.4765990975694</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44796</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44810</v>
+        <v>44908</v>
       </c>
       <c r="B14" t="n">
-        <v>-61.6238993926634</v>
+        <v>-84.56435858283268</v>
       </c>
       <c r="C14" t="n">
-        <v>-192.2307113533233</v>
+        <v>-266.0069389915711</v>
       </c>
       <c r="D14" t="n">
-        <v>70.57291483965099</v>
+        <v>83.75158245678486</v>
       </c>
       <c r="E14" t="n">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44803</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44817</v>
+        <v>44915</v>
       </c>
       <c r="B15" t="n">
-        <v>2.535924930935664</v>
+        <v>-46.19638070782986</v>
       </c>
       <c r="C15" t="n">
-        <v>-120.4068856775241</v>
+        <v>-231.7876129992419</v>
       </c>
       <c r="D15" t="n">
-        <v>125.3258260976412</v>
+        <v>128.7402679054468</v>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44810</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44908</v>
+        <v>44929</v>
       </c>
       <c r="B16" t="n">
-        <v>-57.34075273805898</v>
+        <v>72.53166724649967</v>
       </c>
       <c r="C16" t="n">
-        <v>-185.1187463474688</v>
+        <v>-103.6034798629109</v>
       </c>
       <c r="D16" t="n">
-        <v>66.47503684301047</v>
+        <v>254.5075059011885</v>
       </c>
       <c r="E16" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44901</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44915</v>
+        <v>44936</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.199572927211889</v>
+        <v>61.58302797650796</v>
       </c>
       <c r="C17" t="n">
-        <v>-132.123654799189</v>
+        <v>-103.0251117174105</v>
       </c>
       <c r="D17" t="n">
-        <v>125.5966702080528</v>
+        <v>222.8001353462169</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44908</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B18" t="n">
-        <v>64.22592998184385</v>
+        <v>12.18392889276399</v>
       </c>
       <c r="C18" t="n">
-        <v>-63.55974246396104</v>
+        <v>-161.1442528145264</v>
       </c>
       <c r="D18" t="n">
-        <v>182.0734899272654</v>
+        <v>194.1351667256877</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B19" t="n">
-        <v>46.74072207934319</v>
+        <v>-29.58724985814194</v>
       </c>
       <c r="C19" t="n">
-        <v>-76.56056296787504</v>
+        <v>-205.064957950081</v>
       </c>
       <c r="D19" t="n">
-        <v>174.4359869700403</v>
+        <v>131.9416474315339</v>
       </c>
       <c r="E19" t="n">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B20" t="n">
-        <v>35.28256411028815</v>
+        <v>-28.42399920245055</v>
       </c>
       <c r="C20" t="n">
-        <v>-92.59495275867252</v>
+        <v>-208.4156140479265</v>
       </c>
       <c r="D20" t="n">
-        <v>153.7884079155115</v>
+        <v>138.8908129056592</v>
       </c>
       <c r="E20" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="B21" t="n">
-        <v>15.13318530045649</v>
+        <v>-8.681999904079674</v>
       </c>
       <c r="C21" t="n">
-        <v>-109.5576363176824</v>
+        <v>-186.9704199504004</v>
       </c>
       <c r="D21" t="n">
-        <v>135.2496769294812</v>
+        <v>161.466139332636</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22.1459074732434</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-152.0125806044054</v>
+      </c>
+      <c r="D22" t="n">
+        <v>190.3120082803781</v>
+      </c>
+      <c r="E22" t="n">
+        <v>84</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.518616754441922</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-126.5899746987964</v>
-      </c>
-      <c r="D22" t="n">
-        <v>126.1397503433668</v>
-      </c>
-      <c r="E22" t="n">
-        <v>36</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B23" t="n">
-        <v>3.47682177912958</v>
+        <v>48.33433658856566</v>
       </c>
       <c r="C23" t="n">
-        <v>-119.6807070164716</v>
+        <v>-106.9725282378243</v>
       </c>
       <c r="D23" t="n">
-        <v>131.6118539835405</v>
+        <v>224.3846540632053</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B24" t="n">
-        <v>4.169542399451529</v>
+        <v>224.067278929535</v>
       </c>
       <c r="C24" t="n">
-        <v>-116.7588589911181</v>
+        <v>52.31430156620541</v>
       </c>
       <c r="D24" t="n">
-        <v>127.4986387127457</v>
+        <v>392.3301788116169</v>
       </c>
       <c r="E24" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B25" t="n">
-        <v>43.40444076989127</v>
+        <v>-11.87253045153506</v>
       </c>
       <c r="C25" t="n">
-        <v>-73.8332326403013</v>
+        <v>-175.7737912846946</v>
       </c>
       <c r="D25" t="n">
-        <v>160.5772059771028</v>
+        <v>159.5723812869123</v>
       </c>
       <c r="E25" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B26" t="n">
-        <v>332.040753008824</v>
+        <v>11.18062665161057</v>
       </c>
       <c r="C26" t="n">
-        <v>211.6467346491554</v>
+        <v>-162.3482752014188</v>
       </c>
       <c r="D26" t="n">
-        <v>450.8685845646949</v>
+        <v>155.9013292977593</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B27" t="n">
+        <v>59.05527687844352</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-95.47864380186236</v>
+      </c>
+      <c r="D27" t="n">
+        <v>224.4023653386834</v>
+      </c>
+      <c r="E27" t="n">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B27" t="n">
-        <v>58.79948045055917</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-59.03571996406732</v>
-      </c>
-      <c r="D27" t="n">
-        <v>179.1251640693249</v>
-      </c>
-      <c r="E27" t="n">
-        <v>48</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B28" t="n">
-        <v>60.11852678899641</v>
+        <v>150.1438284772726</v>
       </c>
       <c r="C28" t="n">
-        <v>-61.85052351348418</v>
+        <v>-5.489981974141116</v>
       </c>
       <c r="D28" t="n">
-        <v>187.0866215824264</v>
+        <v>320.2002275344924</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44992</v>
+        <v>45013</v>
       </c>
       <c r="B29" t="n">
-        <v>59.38929624953255</v>
+        <v>8.447680281260915</v>
       </c>
       <c r="C29" t="n">
-        <v>-65.0566074808998</v>
+        <v>-147.8837442194928</v>
       </c>
       <c r="D29" t="n">
-        <v>179.6602202115064</v>
+        <v>183.1876802599103</v>
       </c>
       <c r="E29" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="B30" t="n">
-        <v>76.73466606366483</v>
+        <v>-38.5543471965772</v>
       </c>
       <c r="C30" t="n">
-        <v>-45.77611038542702</v>
+        <v>-203.9054162805994</v>
       </c>
       <c r="D30" t="n">
-        <v>207.0635050668923</v>
+        <v>133.2877609404325</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="B31" t="n">
-        <v>66.36540022398033</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-53.3820814025355</v>
-      </c>
-      <c r="D31" t="n">
-        <v>185.3930525764432</v>
-      </c>
-      <c r="E31" t="n">
-        <v>72</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45020</v>
-      </c>
-      <c r="B32" t="n">
-        <v>69.8579269460443</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-49.49362815039219</v>
-      </c>
-      <c r="D32" t="n">
-        <v>195.3424196010571</v>
-      </c>
-      <c r="E32" t="n">
-        <v>60</v>
-      </c>
-      <c r="F32" s="2" t="n">
         <v>45013</v>
       </c>
     </row>
@@ -1157,22 +1117,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2394.656747133125</v>
+        <v>1914.425203266416</v>
       </c>
       <c r="C2" t="n">
-        <v>48.935230122409</v>
+        <v>43.75414498383457</v>
       </c>
       <c r="D2" t="n">
-        <v>45.53731496009075</v>
+        <v>40.75068662623455</v>
       </c>
       <c r="E2" t="n">
-        <v>2.420570648758013</v>
+        <v>0.935151017728461</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9275662129348005</v>
+        <v>0.935151017728461</v>
       </c>
       <c r="G2" t="n">
-        <v>1.236591912888932</v>
+        <v>1.526050099581333</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1183,25 +1143,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>8900.758874435734</v>
+        <v>9645.046391534052</v>
       </c>
       <c r="C3" t="n">
-        <v>94.34383326129871</v>
+        <v>98.20919708221858</v>
       </c>
       <c r="D3" t="n">
-        <v>75.13032923892963</v>
+        <v>81.66718062799043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9940424582238604</v>
+        <v>1.193415057336933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9503625904827199</v>
+        <v>1.182093987552804</v>
       </c>
       <c r="G3" t="n">
-        <v>1.041689182766555</v>
+        <v>1.247547716607945</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7037037037037036</v>
+        <v>0.9230769230769234</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS0491029/OBAMAS0491029_Sell in_metricas.xlsx
+++ b/modelos/OBAMAS0491029/OBAMAS0491029_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,581 +473,641 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44733</v>
+        <v>44715</v>
       </c>
       <c r="B2" t="n">
-        <v>37.71703877278836</v>
+        <v>30.60619824739658</v>
       </c>
       <c r="C2" t="n">
-        <v>-134.4375600726383</v>
+        <v>-89.14079760613141</v>
       </c>
       <c r="D2" t="n">
-        <v>212.6285253055488</v>
+        <v>169.4429937947905</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44726</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44740</v>
+        <v>44722</v>
       </c>
       <c r="B3" t="n">
-        <v>-80.08436768444867</v>
+        <v>72.68186124935639</v>
       </c>
       <c r="C3" t="n">
-        <v>-262.7568335038818</v>
+        <v>-49.67019519692195</v>
       </c>
       <c r="D3" t="n">
-        <v>99.95601022689719</v>
+        <v>208.773849652141</v>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44733</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44747</v>
+        <v>44726</v>
       </c>
       <c r="B4" t="n">
-        <v>-11.06146971552032</v>
+        <v>158.0204408771588</v>
       </c>
       <c r="C4" t="n">
-        <v>-199.9572531258859</v>
+        <v>30.95130764767157</v>
       </c>
       <c r="D4" t="n">
-        <v>168.3801407141812</v>
+        <v>281.4276426593923</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44740</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44754</v>
+        <v>44733</v>
       </c>
       <c r="B5" t="n">
-        <v>198.4141901307071</v>
+        <v>106.9720334248944</v>
       </c>
       <c r="C5" t="n">
-        <v>11.44245476011092</v>
+        <v>-28.68617281864529</v>
       </c>
       <c r="D5" t="n">
-        <v>370.3717194200945</v>
+        <v>230.8952085227528</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44747</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44761</v>
+        <v>44740</v>
       </c>
       <c r="B6" t="n">
-        <v>196.7930481209825</v>
+        <v>5.47921417294684</v>
       </c>
       <c r="C6" t="n">
-        <v>25.66235483769896</v>
+        <v>-124.332244312313</v>
       </c>
       <c r="D6" t="n">
-        <v>379.7527010227505</v>
+        <v>133.3195359709691</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44754</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44768</v>
+        <v>44747</v>
       </c>
       <c r="B7" t="n">
-        <v>95.95535479114795</v>
+        <v>-47.5585427693944</v>
       </c>
       <c r="C7" t="n">
-        <v>-79.65563752812308</v>
+        <v>-180.3978047438024</v>
       </c>
       <c r="D7" t="n">
-        <v>269.2590616907481</v>
+        <v>76.3452727356721</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44761</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44775</v>
+        <v>44754</v>
       </c>
       <c r="B8" t="n">
-        <v>118.4527511508919</v>
+        <v>68.42240009606762</v>
       </c>
       <c r="C8" t="n">
-        <v>-55.45553838201042</v>
+        <v>-64.58425851324375</v>
       </c>
       <c r="D8" t="n">
-        <v>293.4483450966756</v>
+        <v>199.1867150292925</v>
       </c>
       <c r="E8" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44768</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44782</v>
+        <v>44761</v>
       </c>
       <c r="B9" t="n">
-        <v>145.5297508194053</v>
+        <v>252.5833764845357</v>
       </c>
       <c r="C9" t="n">
-        <v>-35.39515439826957</v>
+        <v>126.9663037190212</v>
       </c>
       <c r="D9" t="n">
-        <v>316.1068881159336</v>
+        <v>376.2427505113006</v>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44775</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44796</v>
+        <v>44768</v>
       </c>
       <c r="B10" t="n">
-        <v>62.5808616991654</v>
+        <v>272.1217111921679</v>
       </c>
       <c r="C10" t="n">
-        <v>-113.2615171365054</v>
+        <v>142.1647821273461</v>
       </c>
       <c r="D10" t="n">
-        <v>236.6283456380969</v>
+        <v>394.8849643815076</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44789</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44803</v>
+        <v>44775</v>
       </c>
       <c r="B11" t="n">
-        <v>-60.64729690764895</v>
+        <v>273.0657999473543</v>
       </c>
       <c r="C11" t="n">
-        <v>-226.9418235255598</v>
+        <v>151.9169092200534</v>
       </c>
       <c r="D11" t="n">
-        <v>113.2822640210427</v>
+        <v>392.6128430005797</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44796</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44810</v>
+        <v>44782</v>
       </c>
       <c r="B12" t="n">
-        <v>-102.3667522916352</v>
+        <v>219.4233245146361</v>
       </c>
       <c r="C12" t="n">
-        <v>-287.632773680876</v>
+        <v>104.0715082373092</v>
       </c>
       <c r="D12" t="n">
-        <v>83.48874040382921</v>
+        <v>338.2602874801627</v>
       </c>
       <c r="E12" t="n">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44803</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44817</v>
+        <v>44796</v>
       </c>
       <c r="B13" t="n">
-        <v>-19.53032019335076</v>
+        <v>43.7550629884301</v>
       </c>
       <c r="C13" t="n">
-        <v>-191.0424395564139</v>
+        <v>-85.49058419478887</v>
       </c>
       <c r="D13" t="n">
-        <v>154.4765990975694</v>
+        <v>176.022404728945</v>
       </c>
       <c r="E13" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44810</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44908</v>
+        <v>44803</v>
       </c>
       <c r="B14" t="n">
-        <v>-84.56435858283268</v>
+        <v>-43.78670117510956</v>
       </c>
       <c r="C14" t="n">
-        <v>-266.0069389915711</v>
+        <v>-169.2326147748119</v>
       </c>
       <c r="D14" t="n">
-        <v>83.75158245678486</v>
+        <v>83.09201116548415</v>
       </c>
       <c r="E14" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44901</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44915</v>
+        <v>44810</v>
       </c>
       <c r="B15" t="n">
-        <v>-46.19638070782986</v>
+        <v>-54.65063724361559</v>
       </c>
       <c r="C15" t="n">
-        <v>-231.7876129992419</v>
+        <v>-187.8348027396655</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7402679054468</v>
+        <v>65.0696582857105</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44908</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44929</v>
+        <v>44817</v>
       </c>
       <c r="B16" t="n">
-        <v>72.53166724649967</v>
+        <v>19.87773827213115</v>
       </c>
       <c r="C16" t="n">
-        <v>-103.6034798629109</v>
+        <v>-105.8493991948525</v>
       </c>
       <c r="D16" t="n">
-        <v>254.5075059011885</v>
+        <v>157.2792511446007</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44922</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44936</v>
+        <v>44908</v>
       </c>
       <c r="B17" t="n">
-        <v>61.58302797650796</v>
+        <v>-61.14270177080483</v>
       </c>
       <c r="C17" t="n">
-        <v>-103.0251117174105</v>
+        <v>-177.3519018608432</v>
       </c>
       <c r="D17" t="n">
-        <v>222.8001353462169</v>
+        <v>71.10004239831103</v>
       </c>
       <c r="E17" t="n">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44929</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
       <c r="B18" t="n">
-        <v>12.18392889276399</v>
+        <v>-10.34913965937122</v>
       </c>
       <c r="C18" t="n">
-        <v>-161.1442528145264</v>
+        <v>-134.0608585799961</v>
       </c>
       <c r="D18" t="n">
-        <v>194.1351667256877</v>
+        <v>111.9477083063056</v>
       </c>
       <c r="E18" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44936</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44950</v>
+        <v>44929</v>
       </c>
       <c r="B19" t="n">
-        <v>-29.58724985814194</v>
+        <v>60.98285656954732</v>
       </c>
       <c r="C19" t="n">
-        <v>-205.064957950081</v>
+        <v>-67.53074585785204</v>
       </c>
       <c r="D19" t="n">
-        <v>131.9416474315339</v>
+        <v>182.035162837828</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44943</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44957</v>
+        <v>44936</v>
       </c>
       <c r="B20" t="n">
-        <v>-28.42399920245055</v>
+        <v>53.71864611946816</v>
       </c>
       <c r="C20" t="n">
-        <v>-208.4156140479265</v>
+        <v>-76.20985715860388</v>
       </c>
       <c r="D20" t="n">
-        <v>138.8908129056592</v>
+        <v>175.543170724331</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44950</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44960</v>
+        <v>44943</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.681999904079674</v>
+        <v>33.3583894167939</v>
       </c>
       <c r="C21" t="n">
-        <v>-186.9704199504004</v>
+        <v>-100.927998488023</v>
       </c>
       <c r="D21" t="n">
-        <v>161.466139332636</v>
+        <v>156.5094496674415</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44957</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44964</v>
+        <v>44950</v>
       </c>
       <c r="B22" t="n">
-        <v>22.1459074732434</v>
+        <v>11.01503604402589</v>
       </c>
       <c r="C22" t="n">
-        <v>-152.0125806044054</v>
+        <v>-115.7926995389741</v>
       </c>
       <c r="D22" t="n">
-        <v>190.3120082803781</v>
+        <v>130.7094348691552</v>
       </c>
       <c r="E22" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44971</v>
+        <v>44957</v>
       </c>
       <c r="B23" t="n">
-        <v>48.33433658856566</v>
+        <v>-9.466902846269932</v>
       </c>
       <c r="C23" t="n">
-        <v>-106.9725282378243</v>
+        <v>-138.95272223064</v>
       </c>
       <c r="D23" t="n">
-        <v>224.3846540632053</v>
+        <v>114.7596474344822</v>
       </c>
       <c r="E23" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44964</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44980</v>
+        <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>224.067278929535</v>
+        <v>1.775704736522982</v>
       </c>
       <c r="C24" t="n">
-        <v>52.31430156620541</v>
+        <v>-128.2812338510564</v>
       </c>
       <c r="D24" t="n">
-        <v>392.3301788116169</v>
+        <v>132.1944640484634</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44985</v>
+        <v>44964</v>
       </c>
       <c r="B25" t="n">
-        <v>-11.87253045153506</v>
+        <v>4.845001411450625</v>
       </c>
       <c r="C25" t="n">
-        <v>-175.7737912846946</v>
+        <v>-118.3457219440503</v>
       </c>
       <c r="D25" t="n">
-        <v>159.5723812869123</v>
+        <v>119.5432667193487</v>
       </c>
       <c r="E25" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44988</v>
+        <v>44971</v>
       </c>
       <c r="B26" t="n">
-        <v>11.18062665161057</v>
+        <v>43.78029429207749</v>
       </c>
       <c r="C26" t="n">
-        <v>-162.3482752014188</v>
+        <v>-77.40612101268545</v>
       </c>
       <c r="D26" t="n">
-        <v>155.9013292977593</v>
+        <v>172.7030091794932</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44985</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44992</v>
+        <v>44980</v>
       </c>
       <c r="B27" t="n">
-        <v>59.05527687844352</v>
+        <v>318.7160974359289</v>
       </c>
       <c r="C27" t="n">
-        <v>-95.47864380186236</v>
+        <v>193.5655884514434</v>
       </c>
       <c r="D27" t="n">
-        <v>224.4023653386834</v>
+        <v>440.2202827592922</v>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
       <c r="B28" t="n">
-        <v>150.1438284772726</v>
+        <v>52.42841286741819</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.489981974141116</v>
+        <v>-71.4770718362707</v>
       </c>
       <c r="D28" t="n">
-        <v>320.2002275344924</v>
+        <v>178.4093805376671</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44992</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45013</v>
+        <v>44988</v>
       </c>
       <c r="B29" t="n">
-        <v>8.447680281260915</v>
+        <v>63.08865296543928</v>
       </c>
       <c r="C29" t="n">
-        <v>-147.8837442194928</v>
+        <v>-53.57534816634998</v>
       </c>
       <c r="D29" t="n">
-        <v>183.1876802599103</v>
+        <v>177.507097112118</v>
       </c>
       <c r="E29" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45006</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B30" t="n">
+        <v>61.04315428902771</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-63.06609561321831</v>
+      </c>
+      <c r="D30" t="n">
+        <v>173.7738001926284</v>
+      </c>
+      <c r="E30" t="n">
+        <v>84</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>79.25285510953093</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-42.79779334224568</v>
+      </c>
+      <c r="D31" t="n">
+        <v>216.5316482630076</v>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B32" t="n">
+        <v>59.3808544195679</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-64.59318924304522</v>
+      </c>
+      <c r="D32" t="n">
+        <v>177.5017639573678</v>
+      </c>
+      <c r="E32" t="n">
+        <v>72</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>45020</v>
       </c>
-      <c r="B30" t="n">
-        <v>-38.5543471965772</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-203.9054162805994</v>
-      </c>
-      <c r="D30" t="n">
-        <v>133.2877609404325</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="B33" t="n">
+        <v>65.14493840999452</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-65.98237873780103</v>
+      </c>
+      <c r="D33" t="n">
+        <v>186.1877909509325</v>
+      </c>
+      <c r="E33" t="n">
         <v>60</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F33" s="2" t="n">
         <v>45013</v>
       </c>
     </row>
@@ -1117,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1914.425203266416</v>
+        <v>1724.739872498668</v>
       </c>
       <c r="C2" t="n">
-        <v>43.75414498383457</v>
+        <v>41.52998762940663</v>
       </c>
       <c r="D2" t="n">
-        <v>40.75068662623455</v>
+        <v>38.15025193141732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.935151017728461</v>
+        <v>2.080701756272958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.935151017728461</v>
+        <v>1.25676133596941</v>
       </c>
       <c r="G2" t="n">
-        <v>1.526050099581333</v>
+        <v>1.177658836790231</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1143,25 +1203,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>9645.046391534052</v>
+        <v>9214.95936365022</v>
       </c>
       <c r="C3" t="n">
-        <v>98.20919708221858</v>
+        <v>95.99457986600191</v>
       </c>
       <c r="D3" t="n">
-        <v>81.66718062799043</v>
+        <v>76.23239197554881</v>
       </c>
       <c r="E3" t="n">
-        <v>1.193415057336933</v>
+        <v>1.01516869097093</v>
       </c>
       <c r="F3" t="n">
-        <v>1.182093987552804</v>
+        <v>0.9347712598458709</v>
       </c>
       <c r="G3" t="n">
-        <v>1.247547716607945</v>
+        <v>1.033110537680094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9230769230769234</v>
+        <v>0.7037037037037036</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS0491029/OBAMAS0491029_Sell in_metricas.xlsx
+++ b/modelos/OBAMAS0491029/OBAMAS0491029_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44715</v>
+        <v>44722</v>
       </c>
       <c r="B2" t="n">
-        <v>30.60619824739658</v>
+        <v>79.97016926856854</v>
       </c>
       <c r="C2" t="n">
-        <v>-89.14079760613141</v>
+        <v>-51.15397838167024</v>
       </c>
       <c r="D2" t="n">
-        <v>169.4429937947905</v>
+        <v>193.5467810795498</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44712</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44722</v>
+        <v>44726</v>
       </c>
       <c r="B3" t="n">
-        <v>72.68186124935639</v>
+        <v>162.1795020628304</v>
       </c>
       <c r="C3" t="n">
-        <v>-49.67019519692195</v>
+        <v>31.02597189847391</v>
       </c>
       <c r="D3" t="n">
-        <v>208.773849652141</v>
+        <v>290.4432932738394</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44719</v>
@@ -513,419 +513,419 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B4" t="n">
+        <v>109.4296031742486</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-26.13553455474832</v>
+      </c>
+      <c r="D4" t="n">
+        <v>234.5527384750805</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44726</v>
-      </c>
-      <c r="B4" t="n">
-        <v>158.0204408771588</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30.95130764767157</v>
-      </c>
-      <c r="D4" t="n">
-        <v>281.4276426593923</v>
-      </c>
-      <c r="E4" t="n">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.984854155638629</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-116.2737920171862</v>
+      </c>
+      <c r="D5" t="n">
+        <v>123.517429745212</v>
+      </c>
+      <c r="E5" t="n">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44733</v>
-      </c>
-      <c r="B5" t="n">
-        <v>106.9720334248944</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-28.68617281864529</v>
-      </c>
-      <c r="D5" t="n">
-        <v>230.8952085227528</v>
-      </c>
-      <c r="E5" t="n">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44740</v>
+        <v>44747</v>
       </c>
       <c r="B6" t="n">
-        <v>5.47921417294684</v>
+        <v>-44.24490409862825</v>
       </c>
       <c r="C6" t="n">
-        <v>-124.332244312313</v>
+        <v>-169.7975999468396</v>
       </c>
       <c r="D6" t="n">
-        <v>133.3195359709691</v>
+        <v>86.47932739609141</v>
       </c>
       <c r="E6" t="n">
         <v>84</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44733</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B7" t="n">
+        <v>68.916280496997</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-51.18548765676086</v>
+      </c>
+      <c r="D7" t="n">
+        <v>196.6815980481856</v>
+      </c>
+      <c r="E7" t="n">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44747</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-47.5585427693944</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-180.3978047438024</v>
-      </c>
-      <c r="D7" t="n">
-        <v>76.3452727356721</v>
-      </c>
-      <c r="E7" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44740</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44754</v>
+        <v>44761</v>
       </c>
       <c r="B8" t="n">
-        <v>68.42240009606762</v>
+        <v>242.6069236753015</v>
       </c>
       <c r="C8" t="n">
-        <v>-64.58425851324375</v>
+        <v>115.0476035786982</v>
       </c>
       <c r="D8" t="n">
-        <v>199.1867150292925</v>
+        <v>363.8140694552989</v>
       </c>
       <c r="E8" t="n">
         <v>72</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44747</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B9" t="n">
+        <v>258.8734280810436</v>
+      </c>
+      <c r="C9" t="n">
+        <v>135.7870189691629</v>
+      </c>
+      <c r="D9" t="n">
+        <v>383.277473682683</v>
+      </c>
+      <c r="E9" t="n">
+        <v>120</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44761</v>
-      </c>
-      <c r="B9" t="n">
-        <v>252.5833764845357</v>
-      </c>
-      <c r="C9" t="n">
-        <v>126.9663037190212</v>
-      </c>
-      <c r="D9" t="n">
-        <v>376.2427505113006</v>
-      </c>
-      <c r="E9" t="n">
-        <v>72</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44754</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B10" t="n">
+        <v>262.5762505025316</v>
+      </c>
+      <c r="C10" t="n">
+        <v>134.7634538506281</v>
+      </c>
+      <c r="D10" t="n">
+        <v>386.8627887726286</v>
+      </c>
+      <c r="E10" t="n">
+        <v>108</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44768</v>
-      </c>
-      <c r="B10" t="n">
-        <v>272.1217111921679</v>
-      </c>
-      <c r="C10" t="n">
-        <v>142.1647821273461</v>
-      </c>
-      <c r="D10" t="n">
-        <v>394.8849643815076</v>
-      </c>
-      <c r="E10" t="n">
-        <v>120</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44761</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B11" t="n">
+        <v>215.4057639905978</v>
+      </c>
+      <c r="C11" t="n">
+        <v>84.73713292980928</v>
+      </c>
+      <c r="D11" t="n">
+        <v>339.243517461698</v>
+      </c>
+      <c r="E11" t="n">
+        <v>84</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44775</v>
-      </c>
-      <c r="B11" t="n">
-        <v>273.0657999473543</v>
-      </c>
-      <c r="C11" t="n">
-        <v>151.9169092200534</v>
-      </c>
-      <c r="D11" t="n">
-        <v>392.6128430005797</v>
-      </c>
-      <c r="E11" t="n">
-        <v>108</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44782</v>
+        <v>44796</v>
       </c>
       <c r="B12" t="n">
-        <v>219.4233245146361</v>
+        <v>51.5428980113833</v>
       </c>
       <c r="C12" t="n">
-        <v>104.0715082373092</v>
+        <v>-70.06430017697033</v>
       </c>
       <c r="D12" t="n">
-        <v>338.2602874801627</v>
+        <v>180.4085313002589</v>
       </c>
       <c r="E12" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44775</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="B13" t="n">
-        <v>43.7550629884301</v>
+        <v>-40.36686779885901</v>
       </c>
       <c r="C13" t="n">
-        <v>-85.49058419478887</v>
+        <v>-170.0968529657317</v>
       </c>
       <c r="D13" t="n">
-        <v>176.022404728945</v>
+        <v>70.95172019359644</v>
       </c>
       <c r="E13" t="n">
         <v>60</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44789</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-61.62389939264778</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-178.9475610325736</v>
+      </c>
+      <c r="D14" t="n">
+        <v>55.78392948598713</v>
+      </c>
+      <c r="E14" t="n">
+        <v>108</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-43.78670117510956</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-169.2326147748119</v>
-      </c>
-      <c r="D14" t="n">
-        <v>83.09201116548415</v>
-      </c>
-      <c r="E14" t="n">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.535923982912124</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-129.7764880000427</v>
+      </c>
+      <c r="D15" t="n">
+        <v>132.161571557083</v>
+      </c>
+      <c r="E15" t="n">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-54.65063724361559</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-187.8348027396655</v>
-      </c>
-      <c r="D15" t="n">
-        <v>65.0696582857105</v>
-      </c>
-      <c r="E15" t="n">
-        <v>108</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44817</v>
+        <v>44908</v>
       </c>
       <c r="B16" t="n">
-        <v>19.87773827213115</v>
+        <v>-57.34075273801672</v>
       </c>
       <c r="C16" t="n">
-        <v>-105.8493991948525</v>
+        <v>-182.9986996197091</v>
       </c>
       <c r="D16" t="n">
-        <v>157.2792511446007</v>
+        <v>64.7605897715538</v>
       </c>
       <c r="E16" t="n">
         <v>84</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44810</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.199572927206376</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-125.4929484345571</v>
+      </c>
+      <c r="D17" t="n">
+        <v>126.8901908108819</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-61.14270177080483</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-177.3519018608432</v>
-      </c>
-      <c r="D17" t="n">
-        <v>71.10004239831103</v>
-      </c>
-      <c r="E17" t="n">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B18" t="n">
-        <v>-10.34913965937122</v>
+        <v>64.22592998427824</v>
       </c>
       <c r="C18" t="n">
-        <v>-134.0608585799961</v>
+        <v>-62.80765064744536</v>
       </c>
       <c r="D18" t="n">
-        <v>111.9477083063056</v>
+        <v>192.3848540597061</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B19" t="n">
+        <v>46.74072207934316</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-82.21571202006086</v>
+      </c>
+      <c r="D19" t="n">
+        <v>174.1518033555199</v>
+      </c>
+      <c r="E19" t="n">
+        <v>156</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B19" t="n">
-        <v>60.98285656954732</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-67.53074585785204</v>
-      </c>
-      <c r="D19" t="n">
-        <v>182.035162837828</v>
-      </c>
-      <c r="E19" t="n">
-        <v>36</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35.28256411028818</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-104.5846438925344</v>
+      </c>
+      <c r="D20" t="n">
+        <v>154.936589535752</v>
+      </c>
+      <c r="E20" t="n">
+        <v>180</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B20" t="n">
-        <v>53.71864611946816</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-76.20985715860388</v>
-      </c>
-      <c r="D20" t="n">
-        <v>175.543170724331</v>
-      </c>
-      <c r="E20" t="n">
-        <v>156</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15.13318530045649</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-118.4962534714817</v>
+      </c>
+      <c r="D21" t="n">
+        <v>139.2041015519131</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B21" t="n">
-        <v>33.3583894167939</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-100.927998488023</v>
-      </c>
-      <c r="D21" t="n">
-        <v>156.5094496674415</v>
-      </c>
-      <c r="E21" t="n">
-        <v>180</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-4.518616754441922</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-123.5627085820334</v>
+      </c>
+      <c r="D22" t="n">
+        <v>133.7725463648779</v>
+      </c>
+      <c r="E22" t="n">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B22" t="n">
-        <v>11.01503604402589</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-115.7926995389741</v>
-      </c>
-      <c r="D22" t="n">
-        <v>130.7094348691552</v>
-      </c>
-      <c r="E22" t="n">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.47682177912958</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-113.0905498407878</v>
+      </c>
+      <c r="D23" t="n">
+        <v>126.759462318934</v>
+      </c>
+      <c r="E23" t="n">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-9.466902846269932</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-138.95272223064</v>
-      </c>
-      <c r="D23" t="n">
-        <v>114.7596474344822</v>
-      </c>
-      <c r="E23" t="n">
-        <v>36</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B24" t="n">
-        <v>1.775704736522982</v>
+        <v>4.169542399451529</v>
       </c>
       <c r="C24" t="n">
-        <v>-128.2812338510564</v>
+        <v>-124.8293609040953</v>
       </c>
       <c r="D24" t="n">
-        <v>132.1944640484634</v>
+        <v>129.1069621622613</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44957</v>
@@ -933,59 +933,59 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43.40444076989127</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-80.31385066900562</v>
+      </c>
+      <c r="D25" t="n">
+        <v>160.0250720744551</v>
+      </c>
+      <c r="E25" t="n">
+        <v>72</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.845001411450625</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-118.3457219440503</v>
-      </c>
-      <c r="D25" t="n">
-        <v>119.5432667193487</v>
-      </c>
-      <c r="E25" t="n">
-        <v>84</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B26" t="n">
-        <v>43.78029429207749</v>
+        <v>332.040753008824</v>
       </c>
       <c r="C26" t="n">
-        <v>-77.40612101268545</v>
+        <v>210.6384935951213</v>
       </c>
       <c r="D26" t="n">
-        <v>172.7030091794932</v>
+        <v>460.432218482823</v>
       </c>
       <c r="E26" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B27" t="n">
-        <v>318.7160974359289</v>
+        <v>58.79948045055917</v>
       </c>
       <c r="C27" t="n">
-        <v>193.5655884514434</v>
+        <v>-63.9985111672305</v>
       </c>
       <c r="D27" t="n">
-        <v>440.2202827592922</v>
+        <v>181.8982379368731</v>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>44978</v>
@@ -993,39 +993,39 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60.11852678899641</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-67.56503541887001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>182.9154015075983</v>
+      </c>
+      <c r="E28" t="n">
+        <v>36</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B28" t="n">
-        <v>52.42841286741819</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-71.4770718362707</v>
-      </c>
-      <c r="D28" t="n">
-        <v>178.4093805376671</v>
-      </c>
-      <c r="E28" t="n">
-        <v>48</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B29" t="n">
-        <v>63.08865296543928</v>
+        <v>59.38929624953255</v>
       </c>
       <c r="C29" t="n">
-        <v>-53.57534816634998</v>
+        <v>-65.65619122798438</v>
       </c>
       <c r="D29" t="n">
-        <v>177.507097112118</v>
+        <v>190.9210103846197</v>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>44985</v>
@@ -1033,81 +1033,61 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>76.73466606366483</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-39.76337392433948</v>
+      </c>
+      <c r="D30" t="n">
+        <v>197.0913492333703</v>
+      </c>
+      <c r="E30" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B30" t="n">
-        <v>61.04315428902771</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-63.06609561321831</v>
-      </c>
-      <c r="D30" t="n">
-        <v>173.7738001926284</v>
-      </c>
-      <c r="E30" t="n">
-        <v>84</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B31" t="n">
-        <v>79.25285510953093</v>
+        <v>66.36540022398032</v>
       </c>
       <c r="C31" t="n">
-        <v>-42.79779334224568</v>
+        <v>-63.63471604330805</v>
       </c>
       <c r="D31" t="n">
-        <v>216.5316482630076</v>
+        <v>191.3479107001385</v>
       </c>
       <c r="E31" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="B32" t="n">
-        <v>59.3808544195679</v>
+        <v>69.85792694604432</v>
       </c>
       <c r="C32" t="n">
-        <v>-64.59318924304522</v>
+        <v>-46.95377756167465</v>
       </c>
       <c r="D32" t="n">
-        <v>177.5017639573678</v>
+        <v>185.4990892552533</v>
       </c>
       <c r="E32" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45020</v>
-      </c>
-      <c r="B33" t="n">
-        <v>65.14493840999452</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-65.98237873780103</v>
-      </c>
-      <c r="D33" t="n">
-        <v>186.1877909509325</v>
-      </c>
-      <c r="E33" t="n">
-        <v>60</v>
-      </c>
-      <c r="F33" s="2" t="n">
         <v>45013</v>
       </c>
     </row>
@@ -1177,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1724.739872498668</v>
+        <v>2394.653547918929</v>
       </c>
       <c r="C2" t="n">
-        <v>41.52998762940663</v>
+        <v>48.93519743414681</v>
       </c>
       <c r="D2" t="n">
-        <v>38.15025193141732</v>
+        <v>45.53729142614512</v>
       </c>
       <c r="E2" t="n">
-        <v>2.080701756272958</v>
+        <v>2.420568687595878</v>
       </c>
       <c r="F2" t="n">
-        <v>1.25676133596941</v>
+        <v>0.9275662129348005</v>
       </c>
       <c r="G2" t="n">
-        <v>1.177658836790231</v>
+        <v>1.236591779339613</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1203,25 +1183,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>9214.95936365022</v>
+        <v>8900.759292121415</v>
       </c>
       <c r="C3" t="n">
-        <v>95.99457986600191</v>
+        <v>94.343835474934</v>
       </c>
       <c r="D3" t="n">
-        <v>76.23239197554881</v>
+        <v>75.13033262448243</v>
       </c>
       <c r="E3" t="n">
-        <v>1.01516869097093</v>
+        <v>0.9940424667046889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9347712598458709</v>
+        <v>0.9503625904827199</v>
       </c>
       <c r="G3" t="n">
-        <v>1.033110537680094</v>
+        <v>1.041689219517303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7037037037037036</v>
+        <v>0.7407407407407405</v>
       </c>
     </row>
   </sheetData>
